--- a/savings_simulation.xlsx
+++ b/savings_simulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitsanavni/code/excel-mcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393849B0-B220-704C-A022-372550C2347A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A7C953-E803-6B41-87B8-0E667BA6A9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1540" windowWidth="25540" windowHeight="14640" xr2:uid="{C9095CF1-5F0D-3747-8DEF-27A8D0C159EE}"/>
   </bookViews>
@@ -75,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,13 +444,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73705F0C-417A-8843-BF56-73EB882C198C}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -475,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -492,7 +504,7 @@
       </c>
       <c r="B5">
         <f>B2*(1-B3)</f>
-        <v>42500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -516,752 +528,1202 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D7" s="1">
         <f>B7*$B$4</f>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>B7+C7+D7</f>
-        <v>7500</v>
-      </c>
-      <c r="F7">
+        <v>32500</v>
+      </c>
+      <c r="F7" s="1">
         <f>E7/$B$5</f>
-        <v>0.17647058823529413</v>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f>E7</f>
-        <v>7500</v>
-      </c>
-      <c r="C8">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D8">
+        <v>32500</v>
+      </c>
+      <c r="C8" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D8" s="1">
         <f>B8*$B$4</f>
-        <v>525</v>
-      </c>
-      <c r="E8">
+        <v>2275</v>
+      </c>
+      <c r="E8" s="1">
         <f>B8+C8+D8</f>
-        <v>15525</v>
-      </c>
-      <c r="F8">
+        <v>67275</v>
+      </c>
+      <c r="F8" s="1">
         <f>E8/$B$5</f>
-        <v>0.36529411764705882</v>
+        <v>3.8442857142857143</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f>E8</f>
-        <v>15525</v>
-      </c>
-      <c r="C9">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D9">
+        <v>67275</v>
+      </c>
+      <c r="C9" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D9" s="1">
         <f>B9*$B$4</f>
-        <v>1086.75</v>
-      </c>
-      <c r="E9">
+        <v>4709.25</v>
+      </c>
+      <c r="E9" s="1">
         <f>B9+C9+D9</f>
-        <v>24111.75</v>
-      </c>
-      <c r="F9">
+        <v>104484.25</v>
+      </c>
+      <c r="F9" s="1">
         <f>E9/$B$5</f>
-        <v>0.56733529411764705</v>
+        <v>5.9705285714285719</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f>E9</f>
-        <v>24111.75</v>
-      </c>
-      <c r="C10">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D10">
+        <v>104484.25</v>
+      </c>
+      <c r="C10" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D10" s="1">
         <f>B10*$B$4</f>
-        <v>1687.8225000000002</v>
-      </c>
-      <c r="E10">
+        <v>7313.8975000000009</v>
+      </c>
+      <c r="E10" s="1">
         <f>B10+C10+D10</f>
-        <v>33299.572500000002</v>
-      </c>
-      <c r="F10">
+        <v>144298.14749999999</v>
+      </c>
+      <c r="F10" s="1">
         <f>E10/$B$5</f>
-        <v>0.78351935294117647</v>
+        <v>8.245608428571428</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <f>E10</f>
-        <v>33299.572500000002</v>
-      </c>
-      <c r="C11">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D11">
+        <v>144298.14749999999</v>
+      </c>
+      <c r="C11" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D11" s="1">
         <f>B11*$B$4</f>
-        <v>2330.9700750000002</v>
-      </c>
-      <c r="E11">
+        <v>10100.870325</v>
+      </c>
+      <c r="E11" s="1">
         <f>B11+C11+D11</f>
-        <v>43130.542574999999</v>
-      </c>
-      <c r="F11">
+        <v>186899.01782499999</v>
+      </c>
+      <c r="F11" s="1">
         <f>E11/$B$5</f>
-        <v>1.0148362958823529</v>
+        <v>10.679943875714285</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <f>E11</f>
-        <v>43130.542574999999</v>
-      </c>
-      <c r="C12">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D12">
+        <v>186899.01782499999</v>
+      </c>
+      <c r="C12" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D12" s="1">
         <f>B12*$B$4</f>
-        <v>3019.1379802500001</v>
-      </c>
-      <c r="E12">
+        <v>13082.931247750001</v>
+      </c>
+      <c r="E12" s="1">
         <f>B12+C12+D12</f>
-        <v>53649.680555250001</v>
-      </c>
-      <c r="F12">
+        <v>232481.94907274999</v>
+      </c>
+      <c r="F12" s="1">
         <f>E12/$B$5</f>
-        <v>1.2623454248294117</v>
+        <v>13.284682804157143</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <f>E12</f>
-        <v>53649.680555250001</v>
-      </c>
-      <c r="C13">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D13">
+        <v>232481.94907274999</v>
+      </c>
+      <c r="C13" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D13" s="1">
         <f>B13*$B$4</f>
-        <v>3755.4776388675004</v>
-      </c>
-      <c r="E13">
+        <v>16273.736435092502</v>
+      </c>
+      <c r="E13" s="1">
         <f>B13+C13+D13</f>
-        <v>64905.158194117503</v>
-      </c>
-      <c r="F13">
+        <v>281255.68550784251</v>
+      </c>
+      <c r="F13" s="1">
         <f>E13/$B$5</f>
-        <v>1.5271801928027648</v>
+        <v>16.071753457591001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <f>E13</f>
-        <v>64905.158194117503</v>
-      </c>
-      <c r="C14">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D14">
+        <v>281255.68550784251</v>
+      </c>
+      <c r="C14" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D14" s="1">
         <f>B14*$B$4</f>
-        <v>4543.3610735882257</v>
-      </c>
-      <c r="E14">
+        <v>19687.897985548978</v>
+      </c>
+      <c r="E14" s="1">
         <f>B14+C14+D14</f>
-        <v>76948.519267705735</v>
-      </c>
-      <c r="F14">
+        <v>333443.58349339152</v>
+      </c>
+      <c r="F14" s="1">
         <f>E14/$B$5</f>
-        <v>1.8105533945342527</v>
+        <v>19.053919056765231</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f>E14</f>
-        <v>76948.519267705735</v>
-      </c>
-      <c r="C15">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D15">
+        <v>333443.58349339152</v>
+      </c>
+      <c r="C15" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D15" s="1">
         <f>B15*$B$4</f>
-        <v>5386.3963487394021</v>
-      </c>
-      <c r="E15">
+        <v>23341.050844537407</v>
+      </c>
+      <c r="E15" s="1">
         <f>B15+C15+D15</f>
-        <v>89834.915616445141</v>
-      </c>
-      <c r="F15">
+        <v>389284.6343379289</v>
+      </c>
+      <c r="F15" s="1">
         <f>E15/$B$5</f>
-        <v>2.1137627203869447</v>
+        <v>22.244836247881651</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <f>E15</f>
-        <v>89834.915616445141</v>
-      </c>
-      <c r="C16">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D16">
+        <v>389284.6343379289</v>
+      </c>
+      <c r="C16" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D16" s="1">
         <f>B16*$B$4</f>
-        <v>6288.4440931511608</v>
-      </c>
-      <c r="E16">
+        <v>27249.924403655026</v>
+      </c>
+      <c r="E16" s="1">
         <f>B16+C16+D16</f>
-        <v>103623.35970959631</v>
-      </c>
-      <c r="F16">
+        <v>449034.55874158395</v>
+      </c>
+      <c r="F16" s="1">
         <f>E16/$B$5</f>
-        <v>2.4381966990493247</v>
+        <v>25.659117642376227</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <f>E16</f>
-        <v>103623.35970959631</v>
-      </c>
-      <c r="C17">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D17">
+        <v>449034.55874158395</v>
+      </c>
+      <c r="C17" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D17" s="1">
         <f>B17*$B$4</f>
-        <v>7253.6351796717418</v>
-      </c>
-      <c r="E17">
+        <v>31432.41911191088</v>
+      </c>
+      <c r="E17" s="1">
         <f>B17+C17+D17</f>
-        <v>118376.99488926804</v>
-      </c>
-      <c r="F17">
+        <v>512966.97785349481</v>
+      </c>
+      <c r="F17" s="1">
         <f>E17/$B$5</f>
-        <v>2.7853410562180714</v>
+        <v>29.312398734485416</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <f>E17</f>
-        <v>118376.99488926804</v>
-      </c>
-      <c r="C18">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D18">
+        <v>512966.97785349481</v>
+      </c>
+      <c r="C18" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D18" s="1">
         <f>B18*$B$4</f>
-        <v>8286.3896422487633</v>
-      </c>
-      <c r="E18">
+        <v>35907.688449744637</v>
+      </c>
+      <c r="E18" s="1">
         <f>B18+C18+D18</f>
-        <v>134163.38453151681</v>
-      </c>
-      <c r="F18">
+        <v>581374.66630323941</v>
+      </c>
+      <c r="F18" s="1">
         <f>E18/$B$5</f>
-        <v>3.1567855183886309</v>
+        <v>33.221409503042253</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <f>E18</f>
-        <v>134163.38453151681</v>
-      </c>
-      <c r="C19">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D19">
+        <v>581374.66630323941</v>
+      </c>
+      <c r="C19" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D19" s="1">
         <f>B19*$B$4</f>
-        <v>9391.4369172061779</v>
-      </c>
-      <c r="E19">
+        <v>40696.226641226764</v>
+      </c>
+      <c r="E19" s="1">
         <f>B19+C19+D19</f>
-        <v>151054.821448723</v>
-      </c>
-      <c r="F19">
+        <v>654570.89294446621</v>
+      </c>
+      <c r="F19" s="1">
         <f>E19/$B$5</f>
-        <v>3.5542310929111296</v>
+        <v>37.404051025398068</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <f>E19</f>
-        <v>151054.821448723</v>
-      </c>
-      <c r="C20">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D20">
+        <v>654570.89294446621</v>
+      </c>
+      <c r="C20" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D20" s="1">
         <f>B20*$B$4</f>
-        <v>10573.837501410611</v>
-      </c>
-      <c r="E20">
+        <v>45819.962506112635</v>
+      </c>
+      <c r="E20" s="1">
         <f>B20+C20+D20</f>
-        <v>169128.6589501336</v>
-      </c>
-      <c r="F20">
+        <v>732890.85545057885</v>
+      </c>
+      <c r="F20" s="1">
         <f>E20/$B$5</f>
-        <v>3.9794978576502023</v>
+        <v>41.879477454318788</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <f>E20</f>
-        <v>169128.6589501336</v>
-      </c>
-      <c r="C21">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D21">
+        <v>732890.85545057885</v>
+      </c>
+      <c r="C21" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D21" s="1">
         <f>B21*$B$4</f>
-        <v>11839.006126509354</v>
-      </c>
-      <c r="E21">
+        <v>51302.359881540528</v>
+      </c>
+      <c r="E21" s="1">
         <f>B21+C21+D21</f>
-        <v>188467.66507664294</v>
-      </c>
-      <c r="F21">
+        <v>816693.21533211938</v>
+      </c>
+      <c r="F21" s="1">
         <f>E21/$B$5</f>
-        <v>4.4345332959210104</v>
+        <v>46.668183733263966</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <f>E21</f>
-        <v>188467.66507664294</v>
-      </c>
-      <c r="C22">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D22">
+        <v>816693.21533211938</v>
+      </c>
+      <c r="C22" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D22" s="1">
         <f>B22*$B$4</f>
-        <v>13192.736555365007</v>
-      </c>
-      <c r="E22">
+        <v>57168.525073248362</v>
+      </c>
+      <c r="E22" s="1">
         <f>B22+C22+D22</f>
-        <v>209160.40163200794</v>
-      </c>
-      <c r="F22">
+        <v>906361.74040536769</v>
+      </c>
+      <c r="F22" s="1">
         <f>E22/$B$5</f>
-        <v>4.921421214870775</v>
+        <v>51.792099451735297</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <f>E22</f>
-        <v>209160.40163200794</v>
-      </c>
-      <c r="C23">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D23">
+        <v>906361.74040536769</v>
+      </c>
+      <c r="C23" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D23" s="1">
         <f>B23*$B$4</f>
-        <v>14641.228114240557</v>
-      </c>
-      <c r="E23">
+        <v>63445.321828375745</v>
+      </c>
+      <c r="E23" s="1">
         <f>B23+C23+D23</f>
-        <v>231301.62974624851</v>
-      </c>
-      <c r="F23">
+        <v>1002307.0622337435</v>
+      </c>
+      <c r="F23" s="1">
         <f>E23/$B$5</f>
-        <v>5.4423912881470233</v>
+        <v>57.274689270499628</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <f>E23</f>
-        <v>231301.62974624851</v>
-      </c>
-      <c r="C24">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D24">
+        <v>1002307.0622337435</v>
+      </c>
+      <c r="C24" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D24" s="1">
         <f>B24*$B$4</f>
-        <v>16191.114082237396</v>
-      </c>
-      <c r="E24">
+        <v>70161.494356362047</v>
+      </c>
+      <c r="E24" s="1">
         <f>B24+C24+D24</f>
-        <v>254992.74382848589</v>
-      </c>
-      <c r="F24">
+        <v>1104968.5565901056</v>
+      </c>
+      <c r="F24" s="1">
         <f>E24/$B$5</f>
-        <v>5.9998292665526094</v>
+        <v>63.141060376577464</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <f>E24</f>
-        <v>254992.74382848589</v>
-      </c>
-      <c r="C25">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D25">
+        <v>1104968.5565901056</v>
+      </c>
+      <c r="C25" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D25" s="1">
         <f>B25*$B$4</f>
-        <v>17849.492067994015</v>
-      </c>
-      <c r="E25">
+        <v>77347.798961307402</v>
+      </c>
+      <c r="E25" s="1">
         <f>B25+C25+D25</f>
-        <v>280342.23589647992</v>
-      </c>
-      <c r="F25">
+        <v>1214816.355551413</v>
+      </c>
+      <c r="F25" s="1">
         <f>E25/$B$5</f>
-        <v>6.5962879034465862</v>
+        <v>69.418077460080738</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <f>E25</f>
-        <v>280342.23589647992</v>
-      </c>
-      <c r="C26">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D26">
+        <v>1214816.355551413</v>
+      </c>
+      <c r="C26" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D26" s="1">
         <f>B26*$B$4</f>
-        <v>19623.956512753597</v>
-      </c>
-      <c r="E26">
+        <v>85037.144888598923</v>
+      </c>
+      <c r="E26" s="1">
         <f>B26+C26+D26</f>
-        <v>307466.19240923354</v>
-      </c>
-      <c r="F26">
+        <v>1332353.500440012</v>
+      </c>
+      <c r="F26" s="1">
         <f>E26/$B$5</f>
-        <v>7.2344986449231419</v>
+        <v>76.134485739429252</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <f>E26</f>
-        <v>307466.19240923354</v>
-      </c>
-      <c r="C27">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D27">
+        <v>1332353.500440012</v>
+      </c>
+      <c r="C27" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D27" s="1">
         <f>B27*$B$4</f>
-        <v>21522.633468646349</v>
-      </c>
-      <c r="E27">
+        <v>93264.745030800841</v>
+      </c>
+      <c r="E27" s="1">
         <f>B27+C27+D27</f>
-        <v>336488.82587787986</v>
-      </c>
-      <c r="F27">
+        <v>1458118.2454708128</v>
+      </c>
+      <c r="F27" s="1">
         <f>E27/$B$5</f>
-        <v>7.9173841383030554</v>
+        <v>83.321042598332156</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <f>E27</f>
-        <v>336488.82587787986</v>
-      </c>
-      <c r="C28">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D28">
+        <v>1458118.2454708128</v>
+      </c>
+      <c r="C28" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D28" s="1">
         <f>B28*$B$4</f>
-        <v>23554.217811451592</v>
-      </c>
-      <c r="E28">
+        <v>102068.27718295691</v>
+      </c>
+      <c r="E28" s="1">
         <f>B28+C28+D28</f>
-        <v>367543.04368933145</v>
-      </c>
-      <c r="F28">
+        <v>1592686.5226537697</v>
+      </c>
+      <c r="F28" s="1">
         <f>E28/$B$5</f>
-        <v>8.6480716162195641</v>
+        <v>91.010658437358273</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>23</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <f>E28</f>
-        <v>367543.04368933145</v>
-      </c>
-      <c r="C29">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D29">
+        <v>1592686.5226537697</v>
+      </c>
+      <c r="C29" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D29" s="1">
         <f>B29*$B$4</f>
-        <v>25728.013058253204</v>
-      </c>
-      <c r="E29">
+        <v>111488.05658576389</v>
+      </c>
+      <c r="E29" s="1">
         <f>B29+C29+D29</f>
-        <v>400771.05674758466</v>
-      </c>
-      <c r="F29">
+        <v>1736674.5792395335</v>
+      </c>
+      <c r="F29" s="1">
         <f>E29/$B$5</f>
-        <v>9.4299072175902268</v>
+        <v>99.238547385116206</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <f>E29</f>
-        <v>400771.05674758466</v>
-      </c>
-      <c r="C30">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D30">
+        <v>1736674.5792395335</v>
+      </c>
+      <c r="C30" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D30" s="1">
         <f>B30*$B$4</f>
-        <v>28053.973972330929</v>
-      </c>
-      <c r="E30">
+        <v>121567.22054676736</v>
+      </c>
+      <c r="E30" s="1">
         <f>B30+C30+D30</f>
-        <v>436325.03071991558</v>
-      </c>
-      <c r="F30">
+        <v>1890741.7997863009</v>
+      </c>
+      <c r="F30" s="1">
         <f>E30/$B$5</f>
-        <v>10.266471311056836</v>
+        <v>108.04238855921719</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>25</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <f>E30</f>
-        <v>436325.03071991558</v>
-      </c>
-      <c r="C31">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D31">
+        <v>1890741.7997863009</v>
+      </c>
+      <c r="C31" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D31" s="1">
         <f>B31*$B$4</f>
-        <v>30542.752150394095</v>
-      </c>
-      <c r="E31">
+        <v>132351.92598504107</v>
+      </c>
+      <c r="E31" s="1">
         <f>B31+C31+D31</f>
-        <v>474367.78287030966</v>
-      </c>
-      <c r="F31">
+        <v>2055593.7257713419</v>
+      </c>
+      <c r="F31" s="1">
         <f>E31/$B$5</f>
-        <v>11.161594891066109</v>
+        <v>117.46249861550525</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <f>E31</f>
-        <v>474367.78287030966</v>
-      </c>
-      <c r="C32">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D32">
+        <v>2055593.7257713419</v>
+      </c>
+      <c r="C32" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D32" s="1">
         <f>B32*$B$4</f>
-        <v>33205.744800921682</v>
-      </c>
-      <c r="E32">
+        <v>143891.56080399395</v>
+      </c>
+      <c r="E32" s="1">
         <f>B32+C32+D32</f>
-        <v>515073.52767123136</v>
-      </c>
-      <c r="F32">
+        <v>2231985.286575336</v>
+      </c>
+      <c r="F32" s="1">
         <f>E32/$B$5</f>
-        <v>12.119377121676033</v>
+        <v>127.54201637573348</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>27</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <f>E32</f>
-        <v>515073.52767123136</v>
-      </c>
-      <c r="C33">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D33">
+        <v>2231985.286575336</v>
+      </c>
+      <c r="C33" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D33" s="1">
         <f>B33*$B$4</f>
-        <v>36055.146936986202</v>
-      </c>
-      <c r="E33">
+        <v>156238.97006027354</v>
+      </c>
+      <c r="E33" s="1">
         <f>B33+C33+D33</f>
-        <v>558628.67460821755</v>
-      </c>
-      <c r="F33">
+        <v>2420724.2566356095</v>
+      </c>
+      <c r="F33" s="1">
         <f>E33/$B$5</f>
-        <v>13.144204108428648</v>
+        <v>138.32710037917769</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <f>E33</f>
-        <v>558628.67460821755</v>
-      </c>
-      <c r="C34">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D34">
+        <v>2420724.2566356095</v>
+      </c>
+      <c r="C34" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D34" s="1">
         <f>B34*$B$4</f>
-        <v>39104.00722257523</v>
-      </c>
-      <c r="E34">
+        <v>169450.69796449269</v>
+      </c>
+      <c r="E34" s="1">
         <f>B34+C34+D34</f>
-        <v>605232.6818307928</v>
-      </c>
-      <c r="F34">
+        <v>2622674.9546001023</v>
+      </c>
+      <c r="F34" s="1">
         <f>E34/$B$5</f>
-        <v>14.240768984253949</v>
+        <v>149.86714026286299</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <f>E34</f>
-        <v>605232.6818307928</v>
-      </c>
-      <c r="C35">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D35">
+        <v>2622674.9546001023</v>
+      </c>
+      <c r="C35" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D35" s="1">
         <f>B35*$B$4</f>
-        <v>42366.287728155497</v>
-      </c>
-      <c r="E35">
+        <v>183587.24682200718</v>
+      </c>
+      <c r="E35" s="1">
         <f>B35+C35+D35</f>
-        <v>655098.9695589483</v>
-      </c>
-      <c r="F35">
+        <v>2838762.2014221093</v>
+      </c>
+      <c r="F35" s="1">
         <f>E35/$B$5</f>
-        <v>15.414093401387019</v>
+        <v>162.21498293840625</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <f>E35</f>
-        <v>655098.9695589483</v>
-      </c>
-      <c r="C36">
-        <f>$B$2*$B$3</f>
-        <v>7500</v>
-      </c>
-      <c r="D36">
+        <v>2838762.2014221093</v>
+      </c>
+      <c r="C36" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D36" s="1">
         <f>B36*$B$4</f>
-        <v>45856.927869126383</v>
-      </c>
-      <c r="E36">
+        <v>198713.35409954767</v>
+      </c>
+      <c r="E36" s="1">
         <f>B36+C36+D36</f>
-        <v>708455.89742807474</v>
-      </c>
-      <c r="F36">
+        <v>3069975.5555216568</v>
+      </c>
+      <c r="F36" s="1">
         <f>E36/$B$5</f>
-        <v>16.669550527719405</v>
+        <v>175.42717460123754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" ref="B37:B43" si="0">E36</f>
+        <v>3069975.5555216568</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ref="C37:C43" si="1">$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:D43" si="2">B37*$B$4</f>
+        <v>214898.28888651601</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37:E43" si="3">B37+C37+D37</f>
+        <v>3317373.8444081726</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ref="F37:F43" si="4">E37/$B$5</f>
+        <v>189.564219680467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>3317373.8444081726</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
+        <v>232216.1691085721</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="3"/>
+        <v>3582090.0135167446</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="4"/>
+        <v>204.69085791524256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>3582090.0135167446</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
+        <v>250746.30094617215</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="3"/>
+        <v>3865336.3144629169</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="4"/>
+        <v>220.87636082645238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>3865336.3144629169</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
+        <v>270573.54201240418</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="3"/>
+        <v>4168409.8564753211</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="4"/>
+        <v>238.19484894144691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>4168409.8564753211</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
+        <v>291788.68995327252</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="3"/>
+        <v>4492698.5464285938</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="4"/>
+        <v>256.72563122449105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>4492698.5464285938</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="2"/>
+        <v>314488.8982500016</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="3"/>
+        <v>4839687.4446785953</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="4"/>
+        <v>276.55356826734828</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>4839687.4446785953</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="2"/>
+        <v>338778.12112750171</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="3"/>
+        <v>5210965.5658060974</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="4"/>
+        <v>297.76946090320558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1">
+        <f>E43</f>
+        <v>5210965.5658060974</v>
+      </c>
+      <c r="C44" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D44" s="1">
+        <f>B44*$B$4</f>
+        <v>364767.58960642683</v>
+      </c>
+      <c r="E44" s="1">
+        <f>B44+C44+D44</f>
+        <v>5608233.155412524</v>
+      </c>
+      <c r="F44" s="1">
+        <f>E44/$B$5</f>
+        <v>320.47046602357278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>39</v>
+      </c>
+      <c r="B45" s="1">
+        <f>E44</f>
+        <v>5608233.155412524</v>
+      </c>
+      <c r="C45" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D45" s="1">
+        <f>B45*$B$4</f>
+        <v>392576.32087887672</v>
+      </c>
+      <c r="E45" s="1">
+        <f>B45+C45+D45</f>
+        <v>6033309.4762914004</v>
+      </c>
+      <c r="F45" s="1">
+        <f>E45/$B$5</f>
+        <v>344.76054150236575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1">
+        <f>E45</f>
+        <v>6033309.4762914004</v>
+      </c>
+      <c r="C46" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D46" s="1">
+        <f>B46*$B$4</f>
+        <v>422331.66334039805</v>
+      </c>
+      <c r="E46" s="1">
+        <f>B46+C46+D46</f>
+        <v>6488141.1396317985</v>
+      </c>
+      <c r="F46" s="1">
+        <f>E46/$B$5</f>
+        <v>370.75092226467422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1">
+        <f>E46</f>
+        <v>6488141.1396317985</v>
+      </c>
+      <c r="C47" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D47" s="1">
+        <f>B47*$B$4</f>
+        <v>454169.87977422593</v>
+      </c>
+      <c r="E47" s="1">
+        <f>B47+C47+D47</f>
+        <v>6974811.0194060244</v>
+      </c>
+      <c r="F47" s="1">
+        <f>E47/$B$5</f>
+        <v>398.56062968034428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" ref="B48" si="5">E47</f>
+        <v>6974811.0194060244</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" ref="C48" si="6">$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" ref="D48" si="7">B48*$B$4</f>
+        <v>488236.77135842177</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" ref="E48" si="8">B48+C48+D48</f>
+        <v>7495547.7907644464</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" ref="F48" si="9">E48/$B$5</f>
+        <v>428.31701661511124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1">
+        <f>E48</f>
+        <v>7495547.7907644464</v>
+      </c>
+      <c r="C49" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D49" s="1">
+        <f>B49*$B$4</f>
+        <v>524688.34535351128</v>
+      </c>
+      <c r="E49" s="1">
+        <f>B49+C49+D49</f>
+        <v>8052736.1361179575</v>
+      </c>
+      <c r="F49" s="1">
+        <f>E49/$B$5</f>
+        <v>460.15635063531187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44</v>
+      </c>
+      <c r="B50" s="1">
+        <f>E49</f>
+        <v>8052736.1361179575</v>
+      </c>
+      <c r="C50" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D50" s="1">
+        <f>B50*$B$4</f>
+        <v>563691.52952825709</v>
+      </c>
+      <c r="E50" s="1">
+        <f>B50+C50+D50</f>
+        <v>8648927.665646214</v>
+      </c>
+      <c r="F50" s="1">
+        <f>E50/$B$5</f>
+        <v>494.22443803692653</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45</v>
+      </c>
+      <c r="B51" s="1">
+        <f>E50</f>
+        <v>8648927.665646214</v>
+      </c>
+      <c r="C51" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D51" s="1">
+        <f>B51*$B$4</f>
+        <v>605424.93659523502</v>
+      </c>
+      <c r="E51" s="1">
+        <f>B51+C51+D51</f>
+        <v>9286852.6022414491</v>
+      </c>
+      <c r="F51" s="1">
+        <f>E51/$B$5</f>
+        <v>530.67729155665427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>46</v>
+      </c>
+      <c r="B52" s="1">
+        <f>E51</f>
+        <v>9286852.6022414491</v>
+      </c>
+      <c r="C52" s="1">
+        <f>$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D52" s="1">
+        <f>B52*$B$4</f>
+        <v>650079.68215690146</v>
+      </c>
+      <c r="E52" s="1">
+        <f>B52+C52+D52</f>
+        <v>9969432.2843983509</v>
+      </c>
+      <c r="F52" s="1">
+        <f>E52/$B$5</f>
+        <v>569.68184482276286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" ref="B53:B54" si="10">E52</f>
+        <v>9969432.2843983509</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" ref="C53:C54" si="11">$B$2*$B$3</f>
+        <v>32500</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" ref="D53:D54" si="12">B53*$B$4</f>
+        <v>697860.25990788464</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" ref="E53:E54" si="13">B53+C53+D53</f>
+        <v>10699792.544306235</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" ref="F53:F54" si="14">E53/$B$5</f>
+        <v>611.41671681749915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>48</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="10"/>
+        <v>10699792.544306235</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="11"/>
+        <v>32500</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="12"/>
+        <v>748985.47810143651</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="13"/>
+        <v>11481278.022407671</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="14"/>
+        <v>656.07302985186698</v>
       </c>
     </row>
   </sheetData>
